--- a/deployment/Omaha_Cal_Info_GP03FLMA_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GP03FLMA_00002.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\GP03FLMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="8244" windowWidth="24996" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="11400" yWindow="8250" windowWidth="24990" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="116">
   <si>
     <t>Ref Des</t>
   </si>
@@ -232,63 +232,15 @@
     <t>GP03FLMA-RIM01-02-ADCPSL003</t>
   </si>
   <si>
-    <t>GP03FLMA-RIM01-02-CTDMOG057</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOG020</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOG060</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOG015</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOG054</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOG062</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOG052</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOG019</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOG056</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOH026</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOH029</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOH067</t>
-  </si>
-  <si>
     <t>This serial number is made up until we can find the real serial number</t>
   </si>
   <si>
-    <t>GP03FLMA-00002-FMM01</t>
-  </si>
-  <si>
-    <t>GP03FLMA-00002-FMS01</t>
-  </si>
-  <si>
     <t>GP03FLMA-RIM01-02-CTDMOG042</t>
   </si>
   <si>
-    <t>GP03FLMA-RIM01-02-CTDMOG037</t>
-  </si>
-  <si>
     <t>GP03FLMA-RIM01-02-CTDMOG043</t>
   </si>
   <si>
-    <t>GP03FLMA-RIM01-02-CTDMOG025</t>
-  </si>
-  <si>
     <t>GP03FLMA-RIM01-02-CTDMOG044</t>
   </si>
   <si>
@@ -296,21 +248,6 @@
   </si>
   <si>
     <t>GP03FLMA-RIM01-02-CTDMOG047</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOG018</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOG049</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOH083</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOH081</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOH094</t>
   </si>
   <si>
     <r>
@@ -479,6 +416,33 @@
   </si>
   <si>
     <t>37-11704</t>
+  </si>
+  <si>
+    <t>OL000089</t>
+  </si>
+  <si>
+    <t>OL000090</t>
+  </si>
+  <si>
+    <t>GP03FLMA-RIM01-02-CTDMOH051</t>
+  </si>
+  <si>
+    <t>GP03FLMA-RIM01-02-CTDMOH050</t>
+  </si>
+  <si>
+    <t>GP03FLMA-RIM01-02-CTDMOH049</t>
+  </si>
+  <si>
+    <t>GP03FLMA-RIM01-02-CTDMOG048</t>
+  </si>
+  <si>
+    <t>GP03FLMA-RIM01-02-CTDMOG046</t>
+  </si>
+  <si>
+    <t>GP03FLMA-RIM01-02-CTDMOG041</t>
+  </si>
+  <si>
+    <t>GP03FLMA-RIM01-02-CTDMOG040</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1443,7 +1407,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1655,31 +1619,31 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I18" sqref="I17:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" style="8" customWidth="1"/>
-    <col min="15" max="16384" width="8.77734375" style="8"/>
+    <col min="8" max="8" width="11.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="8" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="12" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -1727,9 +1691,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B2" s="47" t="s">
         <v>47</v>
@@ -1759,7 +1723,7 @@
         <v>4237</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="34">
@@ -1777,17 +1741,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E3" s="30"/>
       <c r="F3" s="31"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E4" s="30"/>
       <c r="F4" s="31"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="32"/>
     </row>
   </sheetData>
@@ -1806,34 +1770,33 @@
   <dimension ref="A1:AMM98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F95" sqref="F95"/>
+      <selection pane="bottomRight" activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="11.28515625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="13" customWidth="1"/>
-    <col min="10" max="13" width="10.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="13" customWidth="1"/>
+    <col min="10" max="13" width="10.7109375" style="2" customWidth="1"/>
     <col min="14" max="14" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.77734375" style="2"/>
+    <col min="15" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>1</v>
@@ -1842,7 +1805,7 @@
         <v>42</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>2</v>
@@ -1863,7 +1826,7 @@
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -1880,12 +1843,12 @@
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>48</v>
@@ -1894,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F3" s="7">
         <v>1116</v>
@@ -1913,12 +1876,12 @@
       </c>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>48</v>
@@ -1927,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F4" s="38">
         <v>1116</v>
@@ -1943,12 +1906,12 @@
       </c>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>48</v>
@@ -1957,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F5" s="38">
         <v>1116</v>
@@ -1970,12 +1933,12 @@
       </c>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>48</v>
@@ -1984,7 +1947,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F6" s="38">
         <v>1116</v>
@@ -1997,12 +1960,12 @@
       </c>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>48</v>
@@ -2011,7 +1974,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F7" s="38">
         <v>1116</v>
@@ -2024,12 +1987,12 @@
       </c>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>48</v>
@@ -2038,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F8" s="38">
         <v>1116</v>
@@ -2051,12 +2014,12 @@
       </c>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>48</v>
@@ -2065,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F9" s="38">
         <v>1116</v>
@@ -2081,12 +2044,12 @@
       </c>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>48</v>
@@ -2095,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F10" s="38">
         <v>1116</v>
@@ -2111,12 +2074,12 @@
       </c>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>48</v>
@@ -2125,7 +2088,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F11" s="38">
         <v>1116</v>
@@ -2141,12 +2104,12 @@
       </c>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>48</v>
@@ -2155,7 +2118,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F12" s="38">
         <v>1116</v>
@@ -2171,7 +2134,7 @@
       </c>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="68"/>
       <c r="B13"/>
       <c r="C13" s="38"/>
@@ -2180,12 +2143,12 @@
       <c r="H13" s="4"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>48</v>
@@ -2194,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>60</v>
@@ -2213,12 +2176,12 @@
       </c>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C15" s="38" t="s">
         <v>48</v>
@@ -2227,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F15" s="38" t="s">
         <v>60</v>
@@ -2240,12 +2203,12 @@
       </c>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C16" s="38" t="s">
         <v>48</v>
@@ -2254,7 +2217,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F16" s="38" t="s">
         <v>60</v>
@@ -2267,12 +2230,12 @@
       </c>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C17" s="38" t="s">
         <v>48</v>
@@ -2281,7 +2244,7 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F17" s="38" t="s">
         <v>60</v>
@@ -2294,12 +2257,12 @@
       </c>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C18" s="38" t="s">
         <v>48</v>
@@ -2308,7 +2271,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>60</v>
@@ -2321,12 +2284,12 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>48</v>
@@ -2335,7 +2298,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F19" s="38" t="s">
         <v>60</v>
@@ -2348,12 +2311,12 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C20" s="38" t="s">
         <v>48</v>
@@ -2362,7 +2325,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F20" s="38" t="s">
         <v>60</v>
@@ -2378,7 +2341,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="68"/>
       <c r="B21"/>
       <c r="C21" s="38"/>
@@ -2387,12 +2350,12 @@
       <c r="H21" s="4"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>48</v>
@@ -2401,7 +2364,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F22" s="7">
         <v>127</v>
@@ -2420,12 +2383,12 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>48</v>
@@ -2434,7 +2397,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F23" s="38">
         <v>127</v>
@@ -2450,12 +2413,12 @@
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C24" s="38" t="s">
         <v>48</v>
@@ -2464,7 +2427,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F24" s="38">
         <v>127</v>
@@ -2477,7 +2440,7 @@
       </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="38"/>
@@ -2487,12 +2450,12 @@
       <c r="H25" s="37"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>48</v>
@@ -2501,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F26" s="7">
         <v>20502</v>
@@ -2520,12 +2483,12 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C27" s="38" t="s">
         <v>48</v>
@@ -2534,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F27" s="38">
         <v>20502</v>
@@ -2547,12 +2510,12 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C28" s="38" t="s">
         <v>48</v>
@@ -2561,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F28" s="38">
         <v>20502</v>
@@ -2574,12 +2537,12 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
         <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>48</v>
@@ -2588,7 +2551,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F29" s="38">
         <v>20502</v>
@@ -2601,12 +2564,12 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
         <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C30" s="38" t="s">
         <v>48</v>
@@ -2615,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F30" s="38">
         <v>20502</v>
@@ -2627,16 +2590,16 @@
         <v>500000</v>
       </c>
       <c r="I30" s="62" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C31" s="38" t="s">
         <v>48</v>
@@ -2645,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F31" s="38">
         <v>20502</v>
@@ -2658,12 +2621,12 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
         <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>48</v>
@@ -2672,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F32" s="38">
         <v>20502</v>
@@ -2685,12 +2648,12 @@
       </c>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C33" s="38" t="s">
         <v>48</v>
@@ -2699,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F33" s="38">
         <v>20502</v>
@@ -2712,12 +2675,12 @@
       </c>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
         <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C34" s="38" t="s">
         <v>48</v>
@@ -2726,7 +2689,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F34" s="38">
         <v>20502</v>
@@ -2739,7 +2702,7 @@
       </c>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="68"/>
       <c r="B35"/>
       <c r="C35" s="38"/>
@@ -2748,12 +2711,12 @@
       <c r="H35" s="5"/>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="48" t="s">
-        <v>81</v>
+    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>115</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>48</v>
@@ -2762,10 +2725,10 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F36" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>5</v>
@@ -2781,12 +2744,12 @@
       </c>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="49" t="s">
-        <v>66</v>
+    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>48</v>
@@ -2795,10 +2758,10 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>6</v>
@@ -2808,12 +2771,12 @@
       </c>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="49" t="s">
-        <v>66</v>
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>48</v>
@@ -2822,10 +2785,10 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G38" s="40" t="s">
         <v>7</v>
@@ -2835,12 +2798,12 @@
       </c>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="49" t="s">
-        <v>66</v>
+    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>115</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C39" s="38" t="s">
         <v>48</v>
@@ -2849,10 +2812,10 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>57</v>
@@ -2862,7 +2825,7 @@
       </c>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="68"/>
       <c r="B40"/>
       <c r="C40" s="38"/>
@@ -2871,12 +2834,12 @@
       <c r="H40" s="5"/>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="48" t="s">
-        <v>82</v>
+    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>48</v>
@@ -2885,10 +2848,10 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>5</v>
@@ -2904,12 +2867,12 @@
       </c>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="49" t="s">
-        <v>67</v>
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>114</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>48</v>
@@ -2918,10 +2881,10 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>6</v>
@@ -2931,12 +2894,12 @@
       </c>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="49" t="s">
-        <v>67</v>
+    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C43" s="38" t="s">
         <v>48</v>
@@ -2945,10 +2908,10 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F43" s="38" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="G43" s="40" t="s">
         <v>7</v>
@@ -2958,12 +2921,12 @@
       </c>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="49" t="s">
-        <v>67</v>
+    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C44" s="38" t="s">
         <v>48</v>
@@ -2972,10 +2935,10 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>57</v>
@@ -2985,7 +2948,7 @@
       </c>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="68"/>
       <c r="B45"/>
       <c r="C45" s="38"/>
@@ -2994,12 +2957,12 @@
       <c r="H45" s="5"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="48" t="s">
-        <v>83</v>
+    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>48</v>
@@ -3008,10 +2971,10 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>5</v>
@@ -3027,12 +2990,12 @@
       </c>
       <c r="L46" s="7"/>
     </row>
-    <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="49" t="s">
-        <v>68</v>
+    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C47" s="38" t="s">
         <v>48</v>
@@ -3041,10 +3004,10 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>6</v>
@@ -3054,12 +3017,12 @@
       </c>
       <c r="L47" s="7"/>
     </row>
-    <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="49" t="s">
-        <v>68</v>
+    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C48" s="38" t="s">
         <v>48</v>
@@ -3068,10 +3031,10 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G48" s="40" t="s">
         <v>7</v>
@@ -3081,12 +3044,12 @@
       </c>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="49" t="s">
-        <v>68</v>
+    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C49" s="38" t="s">
         <v>48</v>
@@ -3095,10 +3058,10 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>57</v>
@@ -3108,7 +3071,7 @@
       </c>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="68"/>
       <c r="B50"/>
       <c r="C50" s="38"/>
@@ -3118,12 +3081,12 @@
       <c r="H50" s="5"/>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="48" t="s">
-        <v>84</v>
+    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>48</v>
@@ -3132,10 +3095,10 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F51" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>5</v>
@@ -3151,12 +3114,12 @@
       </c>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="49" t="s">
-        <v>69</v>
+    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C52" s="38" t="s">
         <v>48</v>
@@ -3165,10 +3128,10 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F52" s="38" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>6</v>
@@ -3178,12 +3141,12 @@
       </c>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="49" t="s">
-        <v>69</v>
+    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C53" s="38" t="s">
         <v>48</v>
@@ -3192,10 +3155,10 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="G53" s="40" t="s">
         <v>7</v>
@@ -3205,12 +3168,12 @@
       </c>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="49" t="s">
-        <v>69</v>
+    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>48</v>
@@ -3219,10 +3182,10 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F54" s="38" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>57</v>
@@ -3232,7 +3195,7 @@
       </c>
       <c r="L54" s="7"/>
     </row>
-    <row r="55" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="68"/>
       <c r="B55"/>
       <c r="C55" s="38"/>
@@ -3241,12 +3204,12 @@
       <c r="H55" s="5"/>
       <c r="L55" s="7"/>
     </row>
-    <row r="56" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="48" t="s">
-        <v>85</v>
+    <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>48</v>
@@ -3255,10 +3218,10 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F56" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>5</v>
@@ -3274,12 +3237,12 @@
       </c>
       <c r="L56" s="7"/>
     </row>
-    <row r="57" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="49" t="s">
-        <v>70</v>
+    <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C57" s="38" t="s">
         <v>48</v>
@@ -3288,10 +3251,10 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>6</v>
@@ -3301,12 +3264,12 @@
       </c>
       <c r="L57" s="7"/>
     </row>
-    <row r="58" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="49" t="s">
-        <v>70</v>
+    <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C58" s="38" t="s">
         <v>48</v>
@@ -3315,10 +3278,10 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="G58" s="40" t="s">
         <v>7</v>
@@ -3328,12 +3291,12 @@
       </c>
       <c r="L58" s="7"/>
     </row>
-    <row r="59" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="49" t="s">
-        <v>70</v>
+    <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C59" s="38" t="s">
         <v>48</v>
@@ -3342,10 +3305,10 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F59" s="38" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>57</v>
@@ -3355,7 +3318,7 @@
       </c>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="68"/>
       <c r="B60"/>
       <c r="C60" s="38"/>
@@ -3364,12 +3327,12 @@
       <c r="H60" s="5"/>
       <c r="L60" s="7"/>
     </row>
-    <row r="61" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="48" t="s">
-        <v>86</v>
+    <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>48</v>
@@ -3378,10 +3341,10 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F61" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>5</v>
@@ -3397,12 +3360,12 @@
       </c>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="49" t="s">
-        <v>71</v>
+    <row r="62" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C62" s="38" t="s">
         <v>48</v>
@@ -3411,10 +3374,10 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F62" s="38" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>6</v>
@@ -3424,12 +3387,12 @@
       </c>
       <c r="L62" s="7"/>
     </row>
-    <row r="63" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="49" t="s">
-        <v>71</v>
+    <row r="63" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C63" s="38" t="s">
         <v>48</v>
@@ -3438,10 +3401,10 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F63" s="38" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="G63" s="40" t="s">
         <v>7</v>
@@ -3451,12 +3414,12 @@
       </c>
       <c r="L63" s="7"/>
     </row>
-    <row r="64" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="49" t="s">
-        <v>71</v>
+    <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C64" s="38" t="s">
         <v>48</v>
@@ -3465,10 +3428,10 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F64" s="38" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>57</v>
@@ -3478,7 +3441,7 @@
       </c>
       <c r="L64" s="7"/>
     </row>
-    <row r="65" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="68"/>
       <c r="B65"/>
       <c r="C65" s="38"/>
@@ -3487,12 +3450,12 @@
       <c r="H65" s="5"/>
       <c r="L65" s="7"/>
     </row>
-    <row r="66" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="48" t="s">
-        <v>87</v>
+    <row r="66" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>113</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>48</v>
@@ -3501,10 +3464,10 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="F66" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>5</v>
@@ -3520,12 +3483,12 @@
       </c>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="49" t="s">
-        <v>72</v>
+    <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>113</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C67" s="38" t="s">
         <v>48</v>
@@ -3534,10 +3497,10 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="F67" s="38" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>6</v>
@@ -3547,12 +3510,12 @@
       </c>
       <c r="L67" s="7"/>
     </row>
-    <row r="68" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="49" t="s">
-        <v>72</v>
+    <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C68" s="38" t="s">
         <v>48</v>
@@ -3561,10 +3524,10 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="G68" s="40" t="s">
         <v>7</v>
@@ -3574,12 +3537,12 @@
       </c>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="49" t="s">
-        <v>72</v>
+    <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>113</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C69" s="38" t="s">
         <v>48</v>
@@ -3588,10 +3551,10 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>57</v>
@@ -3601,7 +3564,7 @@
       </c>
       <c r="L69" s="7"/>
     </row>
-    <row r="70" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="68"/>
       <c r="B70"/>
       <c r="C70" s="38"/>
@@ -3610,24 +3573,24 @@
       <c r="H70" s="5"/>
       <c r="L70" s="7"/>
     </row>
-    <row r="71" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="48" t="s">
-        <v>88</v>
+    <row r="71" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>71</v>
       </c>
       <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="13">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>97</v>
+      </c>
+      <c r="F71" t="s">
         <v>98</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="13">
-        <v>2</v>
-      </c>
-      <c r="E71" t="s">
-        <v>118</v>
-      </c>
-      <c r="F71" t="s">
-        <v>119</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>5</v>
@@ -3643,24 +3606,24 @@
       </c>
       <c r="L71" s="7"/>
     </row>
-    <row r="72" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="49" t="s">
-        <v>73</v>
+    <row r="72" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="13">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" s="38" t="s">
         <v>98</v>
-      </c>
-      <c r="C72" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="13">
-        <v>2</v>
-      </c>
-      <c r="E72" t="s">
-        <v>118</v>
-      </c>
-      <c r="F72" s="38" t="s">
-        <v>119</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>6</v>
@@ -3670,24 +3633,24 @@
       </c>
       <c r="L72" s="7"/>
     </row>
-    <row r="73" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="49" t="s">
-        <v>73</v>
+    <row r="73" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="13">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>97</v>
+      </c>
+      <c r="F73" s="38" t="s">
         <v>98</v>
-      </c>
-      <c r="C73" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73" s="13">
-        <v>2</v>
-      </c>
-      <c r="E73" t="s">
-        <v>118</v>
-      </c>
-      <c r="F73" s="38" t="s">
-        <v>119</v>
       </c>
       <c r="G73" s="40" t="s">
         <v>7</v>
@@ -3697,24 +3660,24 @@
       </c>
       <c r="L73" s="7"/>
     </row>
-    <row r="74" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="49" t="s">
-        <v>73</v>
+    <row r="74" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>71</v>
       </c>
       <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="13">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>97</v>
+      </c>
+      <c r="F74" s="38" t="s">
         <v>98</v>
-      </c>
-      <c r="C74" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D74" s="13">
-        <v>2</v>
-      </c>
-      <c r="E74" t="s">
-        <v>118</v>
-      </c>
-      <c r="F74" s="38" t="s">
-        <v>119</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>57</v>
@@ -3724,7 +3687,7 @@
       </c>
       <c r="L74" s="7"/>
     </row>
-    <row r="75" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="68"/>
       <c r="B75"/>
       <c r="C75" s="38"/>
@@ -3733,12 +3696,12 @@
       <c r="H75" s="5"/>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="48" t="s">
-        <v>89</v>
+    <row r="76" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>112</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>48</v>
@@ -3747,10 +3710,10 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F76" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>5</v>
@@ -3766,12 +3729,12 @@
       </c>
       <c r="L76" s="7"/>
     </row>
-    <row r="77" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="49" t="s">
-        <v>74</v>
+    <row r="77" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>112</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C77" s="38" t="s">
         <v>48</v>
@@ -3780,10 +3743,10 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>6</v>
@@ -3793,12 +3756,12 @@
       </c>
       <c r="L77" s="7"/>
     </row>
-    <row r="78" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="49" t="s">
-        <v>74</v>
+    <row r="78" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>112</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>48</v>
@@ -3807,10 +3770,10 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="G78" s="40" t="s">
         <v>7</v>
@@ -3820,12 +3783,12 @@
       </c>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="49" t="s">
-        <v>74</v>
+    <row r="79" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>112</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C79" s="38" t="s">
         <v>48</v>
@@ -3834,10 +3797,10 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>57</v>
@@ -3847,7 +3810,7 @@
       </c>
       <c r="L79" s="7"/>
     </row>
-    <row r="80" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="68"/>
       <c r="B80"/>
       <c r="C80" s="38"/>
@@ -3856,12 +3819,12 @@
       <c r="H80" s="5"/>
       <c r="L80" s="7"/>
     </row>
-    <row r="81" spans="1:1027" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="48" t="s">
-        <v>90</v>
+    <row r="81" spans="1:1027" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>111</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>48</v>
@@ -3870,10 +3833,10 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F81" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>5</v>
@@ -3889,12 +3852,12 @@
       </c>
       <c r="L81" s="42"/>
     </row>
-    <row r="82" spans="1:1027" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A82" s="49" t="s">
-        <v>75</v>
+    <row r="82" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C82" s="41" t="s">
         <v>48</v>
@@ -3903,10 +3866,10 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>6</v>
@@ -3916,12 +3879,12 @@
       </c>
       <c r="L82" s="7"/>
     </row>
-    <row r="83" spans="1:1027" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="49" t="s">
-        <v>75</v>
+    <row r="83" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>111</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C83" s="41" t="s">
         <v>48</v>
@@ -3930,10 +3893,10 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F83" s="38" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="G83" s="40" t="s">
         <v>7</v>
@@ -3943,12 +3906,12 @@
       </c>
       <c r="L83" s="7"/>
     </row>
-    <row r="84" spans="1:1027" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="49" t="s">
-        <v>75</v>
+    <row r="84" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>111</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C84" s="41" t="s">
         <v>48</v>
@@ -3957,10 +3920,10 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>57</v>
@@ -3970,7 +3933,7 @@
       </c>
       <c r="L84" s="7"/>
     </row>
-    <row r="85" spans="1:1027" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="68"/>
       <c r="B85"/>
       <c r="C85" s="41"/>
@@ -3979,12 +3942,12 @@
       <c r="H85" s="5"/>
       <c r="L85" s="7"/>
     </row>
-    <row r="86" spans="1:1027" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="48" t="s">
-        <v>91</v>
+    <row r="86" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>110</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>48</v>
@@ -3993,10 +3956,10 @@
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F86" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>5</v>
@@ -4012,12 +3975,12 @@
       </c>
       <c r="L86" s="7"/>
     </row>
-    <row r="87" spans="1:1027" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="49" t="s">
-        <v>76</v>
+    <row r="87" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C87" s="38" t="s">
         <v>48</v>
@@ -4026,10 +3989,10 @@
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F87" s="38" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>6</v>
@@ -4039,12 +4002,12 @@
       </c>
       <c r="L87" s="7"/>
     </row>
-    <row r="88" spans="1:1027" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A88" s="49" t="s">
-        <v>76</v>
+    <row r="88" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>110</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C88" s="38" t="s">
         <v>48</v>
@@ -4053,10 +4016,10 @@
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F88" s="38" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="G88" s="40" t="s">
         <v>7</v>
@@ -4066,12 +4029,12 @@
       </c>
       <c r="L88" s="7"/>
     </row>
-    <row r="89" spans="1:1027" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A89" s="49" t="s">
-        <v>76</v>
+    <row r="89" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>110</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C89" s="38" t="s">
         <v>48</v>
@@ -4080,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F89" s="38" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>57</v>
@@ -4093,7 +4056,7 @@
       </c>
       <c r="L89" s="7"/>
     </row>
-    <row r="90" spans="1:1027" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="68"/>
       <c r="B90"/>
       <c r="C90" s="38"/>
@@ -4102,12 +4065,12 @@
       <c r="H90" s="5"/>
       <c r="L90" s="7"/>
     </row>
-    <row r="91" spans="1:1027" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="48" t="s">
-        <v>92</v>
+    <row r="91" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>48</v>
@@ -4116,10 +4079,10 @@
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="F91" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>5</v>
@@ -4135,12 +4098,12 @@
       </c>
       <c r="L91" s="7"/>
     </row>
-    <row r="92" spans="1:1027" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A92" s="49" t="s">
-        <v>77</v>
+    <row r="92" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C92" s="38" t="s">
         <v>48</v>
@@ -4149,10 +4112,10 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="F92" s="38" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>6</v>
@@ -4162,12 +4125,12 @@
       </c>
       <c r="L92" s="7"/>
     </row>
-    <row r="93" spans="1:1027" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A93" s="49" t="s">
-        <v>77</v>
+    <row r="93" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>109</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C93" s="38" t="s">
         <v>48</v>
@@ -4176,10 +4139,10 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="F93" s="38" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G93" s="40" t="s">
         <v>7</v>
@@ -4189,12 +4152,12 @@
       </c>
       <c r="L93" s="7"/>
     </row>
-    <row r="94" spans="1:1027" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A94" s="49" t="s">
-        <v>77</v>
+    <row r="94" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C94" s="38" t="s">
         <v>48</v>
@@ -4203,10 +4166,10 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="F94" s="38" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G94" s="6" t="s">
         <v>57</v>
@@ -4216,16 +4179,16 @@
       </c>
       <c r="L94" s="7"/>
     </row>
-    <row r="95" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="H95" s="37"/>
       <c r="L95" s="7"/>
     </row>
-    <row r="96" spans="1:1027" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1027" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="52" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C96" s="53" t="s">
         <v>48</v>
@@ -4233,14 +4196,16 @@
       <c r="D96" s="54">
         <v>2</v>
       </c>
-      <c r="E96" s="54"/>
-      <c r="F96" s="55" t="s">
-        <v>79</v>
+      <c r="E96" t="s">
+        <v>107</v>
+      </c>
+      <c r="F96" s="55">
+        <v>13278</v>
       </c>
       <c r="G96" s="50"/>
       <c r="H96" s="50"/>
       <c r="I96" s="51" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J96" s="50"/>
       <c r="K96" s="50"/>
@@ -5261,7 +5226,7 @@
       <c r="AML96" s="50"/>
       <c r="AMM96" s="50"/>
     </row>
-    <row r="97" spans="1:1027" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1027" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="64"/>
       <c r="B97" s="65"/>
       <c r="C97" s="7"/>
@@ -6290,12 +6255,12 @@
       <c r="AML97" s="50"/>
       <c r="AMM97" s="50"/>
     </row>
-    <row r="98" spans="1:1027" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1027" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="52" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C98" s="53" t="s">
         <v>48</v>
@@ -6303,14 +6268,16 @@
       <c r="D98" s="54">
         <v>2</v>
       </c>
-      <c r="E98" s="54"/>
-      <c r="F98" s="55" t="s">
-        <v>80</v>
+      <c r="E98" t="s">
+        <v>108</v>
+      </c>
+      <c r="F98" s="55">
+        <v>13279</v>
       </c>
       <c r="G98" s="50"/>
       <c r="H98" s="50"/>
       <c r="I98" s="51" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J98" s="50"/>
       <c r="K98" s="50"/>

--- a/deployment/Omaha_Cal_Info_GP03FLMA_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GP03FLMA_00002.xlsx
@@ -277,6 +277,126 @@
     <t>Units in mm</t>
   </si>
   <si>
+    <t>Mooring OOIBARCODE</t>
+  </si>
+  <si>
+    <t>N00252</t>
+  </si>
+  <si>
+    <t>Sensor OOIBARCODE</t>
+  </si>
+  <si>
+    <t>A00470</t>
+  </si>
+  <si>
+    <t>A01502</t>
+  </si>
+  <si>
+    <t>A00169</t>
+  </si>
+  <si>
+    <t>A00568</t>
+  </si>
+  <si>
+    <t>37-11642</t>
+  </si>
+  <si>
+    <t>A01394</t>
+  </si>
+  <si>
+    <t>37-11637</t>
+  </si>
+  <si>
+    <t>A01389</t>
+  </si>
+  <si>
+    <t>A01395</t>
+  </si>
+  <si>
+    <t>37-11643</t>
+  </si>
+  <si>
+    <t>A00114</t>
+  </si>
+  <si>
+    <t>37-10225</t>
+  </si>
+  <si>
+    <t>A01396</t>
+  </si>
+  <si>
+    <t>37-11644</t>
+  </si>
+  <si>
+    <t>A01397</t>
+  </si>
+  <si>
+    <t>37-11645</t>
+  </si>
+  <si>
+    <t>A01399</t>
+  </si>
+  <si>
+    <t>37-11647</t>
+  </si>
+  <si>
+    <t>A00107</t>
+  </si>
+  <si>
+    <t>37-10218</t>
+  </si>
+  <si>
+    <t>A01401</t>
+  </si>
+  <si>
+    <t>37-11649</t>
+  </si>
+  <si>
+    <t>A01410</t>
+  </si>
+  <si>
+    <t>37-11683</t>
+  </si>
+  <si>
+    <t>A01408</t>
+  </si>
+  <si>
+    <t>37-11681</t>
+  </si>
+  <si>
+    <t>A01412</t>
+  </si>
+  <si>
+    <t>37-11704</t>
+  </si>
+  <si>
+    <t>OL000089</t>
+  </si>
+  <si>
+    <t>OL000090</t>
+  </si>
+  <si>
+    <t>GP03FLMA-RIM01-02-CTDMOH051</t>
+  </si>
+  <si>
+    <t>GP03FLMA-RIM01-02-CTDMOH050</t>
+  </si>
+  <si>
+    <t>GP03FLMA-RIM01-02-CTDMOH049</t>
+  </si>
+  <si>
+    <t>GP03FLMA-RIM01-02-CTDMOG048</t>
+  </si>
+  <si>
+    <t>GP03FLMA-RIM01-02-CTDMOG046</t>
+  </si>
+  <si>
+    <t>GP03FLMA-RIM01-02-CTDMOG041</t>
+  </si>
+  <si>
+    <t>GP03FLMA-RIM01-02-CTDMOG040</t>
+  </si>
+  <si>
     <r>
       <t>GP03FLMA-</t>
     </r>
@@ -297,7 +417,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>M01-01-SIOENG000</t>
+      <t>M01-00-SIOENG000</t>
     </r>
   </si>
   <si>
@@ -321,128 +441,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>S01-01-SIOENG000</t>
+      <t>S01-00-SIOENG000</t>
     </r>
-  </si>
-  <si>
-    <t>Mooring OOIBARCODE</t>
-  </si>
-  <si>
-    <t>N00252</t>
-  </si>
-  <si>
-    <t>Sensor OOIBARCODE</t>
-  </si>
-  <si>
-    <t>A00470</t>
-  </si>
-  <si>
-    <t>A01502</t>
-  </si>
-  <si>
-    <t>A00169</t>
-  </si>
-  <si>
-    <t>A00568</t>
-  </si>
-  <si>
-    <t>37-11642</t>
-  </si>
-  <si>
-    <t>A01394</t>
-  </si>
-  <si>
-    <t>37-11637</t>
-  </si>
-  <si>
-    <t>A01389</t>
-  </si>
-  <si>
-    <t>A01395</t>
-  </si>
-  <si>
-    <t>37-11643</t>
-  </si>
-  <si>
-    <t>A00114</t>
-  </si>
-  <si>
-    <t>37-10225</t>
-  </si>
-  <si>
-    <t>A01396</t>
-  </si>
-  <si>
-    <t>37-11644</t>
-  </si>
-  <si>
-    <t>A01397</t>
-  </si>
-  <si>
-    <t>37-11645</t>
-  </si>
-  <si>
-    <t>A01399</t>
-  </si>
-  <si>
-    <t>37-11647</t>
-  </si>
-  <si>
-    <t>A00107</t>
-  </si>
-  <si>
-    <t>37-10218</t>
-  </si>
-  <si>
-    <t>A01401</t>
-  </si>
-  <si>
-    <t>37-11649</t>
-  </si>
-  <si>
-    <t>A01410</t>
-  </si>
-  <si>
-    <t>37-11683</t>
-  </si>
-  <si>
-    <t>A01408</t>
-  </si>
-  <si>
-    <t>37-11681</t>
-  </si>
-  <si>
-    <t>A01412</t>
-  </si>
-  <si>
-    <t>37-11704</t>
-  </si>
-  <si>
-    <t>OL000089</t>
-  </si>
-  <si>
-    <t>OL000090</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOH051</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOH050</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOH049</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOG048</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOG046</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOG041</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-02-CTDMOG040</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1643,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="2" spans="1:16" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="47" t="s">
         <v>47</v>
@@ -1770,10 +1770,10 @@
   <dimension ref="A1:AMM98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E94" sqref="E94"/>
+      <selection pane="bottomRight" activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>1</v>
@@ -1805,7 +1805,7 @@
         <v>42</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>2</v>
@@ -1848,16 +1848,16 @@
         <v>63</v>
       </c>
       <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="13">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
       </c>
       <c r="F3" s="7">
         <v>1116</v>
@@ -1881,16 +1881,16 @@
         <v>63</v>
       </c>
       <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>77</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="13">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
       </c>
       <c r="F4" s="38">
         <v>1116</v>
@@ -1911,16 +1911,16 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="13">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
         <v>77</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="13">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
       </c>
       <c r="F5" s="38">
         <v>1116</v>
@@ -1938,16 +1938,16 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
         <v>77</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="13">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
       </c>
       <c r="F6" s="38">
         <v>1116</v>
@@ -1965,16 +1965,16 @@
         <v>63</v>
       </c>
       <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="13">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
       </c>
       <c r="F7" s="38">
         <v>1116</v>
@@ -1992,16 +1992,16 @@
         <v>63</v>
       </c>
       <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
         <v>77</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="13">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>79</v>
       </c>
       <c r="F8" s="38">
         <v>1116</v>
@@ -2019,16 +2019,16 @@
         <v>63</v>
       </c>
       <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
         <v>77</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="13">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>79</v>
       </c>
       <c r="F9" s="38">
         <v>1116</v>
@@ -2049,16 +2049,16 @@
         <v>63</v>
       </c>
       <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
         <v>77</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="13">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
       </c>
       <c r="F10" s="38">
         <v>1116</v>
@@ -2079,16 +2079,16 @@
         <v>63</v>
       </c>
       <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
         <v>77</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="13">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>79</v>
       </c>
       <c r="F11" s="38">
         <v>1116</v>
@@ -2109,16 +2109,16 @@
         <v>63</v>
       </c>
       <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
         <v>77</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="13">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>79</v>
       </c>
       <c r="F12" s="38">
         <v>1116</v>
@@ -2148,7 +2148,7 @@
         <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>48</v>
@@ -2157,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>60</v>
@@ -2181,7 +2181,7 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" s="38" t="s">
         <v>48</v>
@@ -2190,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F15" s="38" t="s">
         <v>60</v>
@@ -2208,7 +2208,7 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" s="38" t="s">
         <v>48</v>
@@ -2217,7 +2217,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" s="38" t="s">
         <v>60</v>
@@ -2235,7 +2235,7 @@
         <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17" s="38" t="s">
         <v>48</v>
@@ -2244,7 +2244,7 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F17" s="38" t="s">
         <v>60</v>
@@ -2262,7 +2262,7 @@
         <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="38" t="s">
         <v>48</v>
@@ -2271,7 +2271,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>60</v>
@@ -2289,7 +2289,7 @@
         <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>48</v>
@@ -2298,7 +2298,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F19" s="38" t="s">
         <v>60</v>
@@ -2316,7 +2316,7 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" s="38" t="s">
         <v>48</v>
@@ -2325,7 +2325,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F20" s="38" t="s">
         <v>60</v>
@@ -2355,7 +2355,7 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>48</v>
@@ -2364,7 +2364,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F22" s="7">
         <v>127</v>
@@ -2388,7 +2388,7 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>48</v>
@@ -2397,7 +2397,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F23" s="38">
         <v>127</v>
@@ -2418,7 +2418,7 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24" s="38" t="s">
         <v>48</v>
@@ -2427,7 +2427,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F24" s="38">
         <v>127</v>
@@ -2455,7 +2455,7 @@
         <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>48</v>
@@ -2464,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F26" s="7">
         <v>20502</v>
@@ -2488,7 +2488,7 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" s="38" t="s">
         <v>48</v>
@@ -2497,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F27" s="38">
         <v>20502</v>
@@ -2515,7 +2515,7 @@
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C28" s="38" t="s">
         <v>48</v>
@@ -2524,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F28" s="38">
         <v>20502</v>
@@ -2542,7 +2542,7 @@
         <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>48</v>
@@ -2551,7 +2551,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F29" s="38">
         <v>20502</v>
@@ -2569,7 +2569,7 @@
         <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="38" t="s">
         <v>48</v>
@@ -2578,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F30" s="38">
         <v>20502</v>
@@ -2599,7 +2599,7 @@
         <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" s="38" t="s">
         <v>48</v>
@@ -2608,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F31" s="38">
         <v>20502</v>
@@ -2626,7 +2626,7 @@
         <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>48</v>
@@ -2635,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F32" s="38">
         <v>20502</v>
@@ -2653,7 +2653,7 @@
         <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" s="38" t="s">
         <v>48</v>
@@ -2662,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F33" s="38">
         <v>20502</v>
@@ -2680,7 +2680,7 @@
         <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="38" t="s">
         <v>48</v>
@@ -2689,7 +2689,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F34" s="38">
         <v>20502</v>
@@ -2713,10 +2713,10 @@
     </row>
     <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>48</v>
@@ -2725,10 +2725,10 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>5</v>
@@ -2746,10 +2746,10 @@
     </row>
     <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>48</v>
@@ -2758,10 +2758,10 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>6</v>
@@ -2773,10 +2773,10 @@
     </row>
     <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>48</v>
@@ -2785,10 +2785,10 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G38" s="40" t="s">
         <v>7</v>
@@ -2800,10 +2800,10 @@
     </row>
     <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" s="38" t="s">
         <v>48</v>
@@ -2812,10 +2812,10 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>57</v>
@@ -2836,10 +2836,10 @@
     </row>
     <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>48</v>
@@ -2848,10 +2848,10 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>5</v>
@@ -2869,10 +2869,10 @@
     </row>
     <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>48</v>
@@ -2881,10 +2881,10 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>6</v>
@@ -2896,10 +2896,10 @@
     </row>
     <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C43" s="38" t="s">
         <v>48</v>
@@ -2908,10 +2908,10 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F43" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G43" s="40" t="s">
         <v>7</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C44" s="38" t="s">
         <v>48</v>
@@ -2935,10 +2935,10 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>57</v>
@@ -2962,7 +2962,7 @@
         <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>48</v>
@@ -2971,10 +2971,10 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>5</v>
@@ -2995,7 +2995,7 @@
         <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C47" s="38" t="s">
         <v>48</v>
@@ -3004,10 +3004,10 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>6</v>
@@ -3022,7 +3022,7 @@
         <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C48" s="38" t="s">
         <v>48</v>
@@ -3031,10 +3031,10 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G48" s="40" t="s">
         <v>7</v>
@@ -3049,7 +3049,7 @@
         <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C49" s="38" t="s">
         <v>48</v>
@@ -3058,10 +3058,10 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>57</v>
@@ -3086,7 +3086,7 @@
         <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>48</v>
@@ -3095,10 +3095,10 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>5</v>
@@ -3119,7 +3119,7 @@
         <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C52" s="38" t="s">
         <v>48</v>
@@ -3128,10 +3128,10 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F52" s="38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>6</v>
@@ -3146,7 +3146,7 @@
         <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C53" s="38" t="s">
         <v>48</v>
@@ -3155,10 +3155,10 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G53" s="40" t="s">
         <v>7</v>
@@ -3173,7 +3173,7 @@
         <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>48</v>
@@ -3182,10 +3182,10 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F54" s="38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>57</v>
@@ -3209,7 +3209,7 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>48</v>
@@ -3218,10 +3218,10 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>5</v>
@@ -3242,7 +3242,7 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C57" s="38" t="s">
         <v>48</v>
@@ -3251,10 +3251,10 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>6</v>
@@ -3269,7 +3269,7 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C58" s="38" t="s">
         <v>48</v>
@@ -3278,10 +3278,10 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G58" s="40" t="s">
         <v>7</v>
@@ -3296,7 +3296,7 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59" s="38" t="s">
         <v>48</v>
@@ -3305,10 +3305,10 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F59" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>57</v>
@@ -3332,7 +3332,7 @@
         <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>48</v>
@@ -3341,10 +3341,10 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F61" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>5</v>
@@ -3365,7 +3365,7 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="38" t="s">
         <v>48</v>
@@ -3374,10 +3374,10 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F62" s="38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>6</v>
@@ -3392,7 +3392,7 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="38" t="s">
         <v>48</v>
@@ -3401,10 +3401,10 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F63" s="38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G63" s="40" t="s">
         <v>7</v>
@@ -3419,7 +3419,7 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="38" t="s">
         <v>48</v>
@@ -3428,10 +3428,10 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F64" s="38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>57</v>
@@ -3452,10 +3452,10 @@
     </row>
     <row r="66" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>48</v>
@@ -3464,10 +3464,10 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F66" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>5</v>
@@ -3485,10 +3485,10 @@
     </row>
     <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C67" s="38" t="s">
         <v>48</v>
@@ -3497,10 +3497,10 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F67" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>6</v>
@@ -3512,10 +3512,10 @@
     </row>
     <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C68" s="38" t="s">
         <v>48</v>
@@ -3524,10 +3524,10 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G68" s="40" t="s">
         <v>7</v>
@@ -3539,10 +3539,10 @@
     </row>
     <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C69" s="38" t="s">
         <v>48</v>
@@ -3551,10 +3551,10 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>57</v>
@@ -3578,7 +3578,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>48</v>
@@ -3587,10 +3587,10 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F71" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>5</v>
@@ -3611,7 +3611,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C72" s="38" t="s">
         <v>48</v>
@@ -3620,10 +3620,10 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F72" s="38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>6</v>
@@ -3638,7 +3638,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C73" s="38" t="s">
         <v>48</v>
@@ -3647,10 +3647,10 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G73" s="40" t="s">
         <v>7</v>
@@ -3665,7 +3665,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C74" s="38" t="s">
         <v>48</v>
@@ -3674,10 +3674,10 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>57</v>
@@ -3698,10 +3698,10 @@
     </row>
     <row r="76" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>48</v>
@@ -3710,10 +3710,10 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F76" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>5</v>
@@ -3731,10 +3731,10 @@
     </row>
     <row r="77" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C77" s="38" t="s">
         <v>48</v>
@@ -3743,10 +3743,10 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>6</v>
@@ -3758,10 +3758,10 @@
     </row>
     <row r="78" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>48</v>
@@ -3770,10 +3770,10 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G78" s="40" t="s">
         <v>7</v>
@@ -3785,10 +3785,10 @@
     </row>
     <row r="79" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C79" s="38" t="s">
         <v>48</v>
@@ -3797,10 +3797,10 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>57</v>
@@ -3821,10 +3821,10 @@
     </row>
     <row r="81" spans="1:1027" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>48</v>
@@ -3833,10 +3833,10 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F81" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>5</v>
@@ -3854,10 +3854,10 @@
     </row>
     <row r="82" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C82" s="41" t="s">
         <v>48</v>
@@ -3866,10 +3866,10 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>6</v>
@@ -3881,10 +3881,10 @@
     </row>
     <row r="83" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C83" s="41" t="s">
         <v>48</v>
@@ -3893,10 +3893,10 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F83" s="38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G83" s="40" t="s">
         <v>7</v>
@@ -3908,10 +3908,10 @@
     </row>
     <row r="84" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C84" s="41" t="s">
         <v>48</v>
@@ -3920,10 +3920,10 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>57</v>
@@ -3944,10 +3944,10 @@
     </row>
     <row r="86" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>48</v>
@@ -3956,10 +3956,10 @@
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F86" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>5</v>
@@ -3977,10 +3977,10 @@
     </row>
     <row r="87" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C87" s="38" t="s">
         <v>48</v>
@@ -3989,10 +3989,10 @@
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F87" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>6</v>
@@ -4004,10 +4004,10 @@
     </row>
     <row r="88" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C88" s="38" t="s">
         <v>48</v>
@@ -4016,10 +4016,10 @@
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F88" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G88" s="40" t="s">
         <v>7</v>
@@ -4031,10 +4031,10 @@
     </row>
     <row r="89" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C89" s="38" t="s">
         <v>48</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F89" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>57</v>
@@ -4067,10 +4067,10 @@
     </row>
     <row r="91" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>48</v>
@@ -4079,10 +4079,10 @@
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F91" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>5</v>
@@ -4100,10 +4100,10 @@
     </row>
     <row r="92" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C92" s="38" t="s">
         <v>48</v>
@@ -4112,10 +4112,10 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F92" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>6</v>
@@ -4127,10 +4127,10 @@
     </row>
     <row r="93" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C93" s="38" t="s">
         <v>48</v>
@@ -4139,10 +4139,10 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F93" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G93" s="40" t="s">
         <v>7</v>
@@ -4154,10 +4154,10 @@
     </row>
     <row r="94" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C94" s="38" t="s">
         <v>48</v>
@@ -4166,10 +4166,10 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F94" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G94" s="6" t="s">
         <v>57</v>
@@ -4185,10 +4185,10 @@
     </row>
     <row r="96" spans="1:1027" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="52" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C96" s="53" t="s">
         <v>48</v>
@@ -4197,7 +4197,7 @@
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F96" s="55">
         <v>13278</v>
@@ -6257,10 +6257,10 @@
     </row>
     <row r="98" spans="1:1027" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="52" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B98" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C98" s="53" t="s">
         <v>48</v>
@@ -6269,7 +6269,7 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F98" s="55">
         <v>13279</v>
